--- a/顶层工程编译运行步骤.xlsx
+++ b/顶层工程编译运行步骤.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="9960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,8 +57,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -70,20 +78,3602 @@
 </styleSheet>
 </file>
 
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{D481086A-7E11-48B1-97F6-91DF20685354}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList" loCatId="picture" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{435A7B1C-87A2-4574-B8A4-23946BF753DA}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>2(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>安装过程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{455CF7C6-ED0C-44C9-8BEC-1A43FCA86269}" type="parTrans" cxnId="{079C5D13-7046-4812-B562-FC896FB53199}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3C016666-D9F6-4C67-8D16-6A2879E0285E}" type="sibTrans" cxnId="{079C5D13-7046-4812-B562-FC896FB53199}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{391F6080-53ED-4E70-99A2-0E727CB658A1}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0"/>
+            <a:t>依次双击每个安装包，点击左上方的“安装”按钮（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>），</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0"/>
+            <a:t>输入管理员密码（如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4591BFC8-ADEB-458D-923C-1D7C6C3E2EDA}" type="parTrans" cxnId="{9B8D1206-B30B-4267-B859-022114AB4DE9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9424AC28-944A-4A3B-907B-36EBC74BB69E}" type="sibTrans" cxnId="{9B8D1206-B30B-4267-B859-022114AB4DE9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3661D9AC-371D-449A-91D5-E882211F7970}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>3(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>输入管理员密码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D14A1174-A157-424F-A114-E6AAF95A9ED2}" type="parTrans" cxnId="{B4FA9C1E-3D39-4C01-BE96-F20C5F9EFE2A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{18D79EBF-2B6F-4B4D-9713-14A2235F0FBF}" type="sibTrans" cxnId="{B4FA9C1E-3D39-4C01-BE96-F20C5F9EFE2A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{956E677F-E02C-4477-86FC-38880AC9AB0A}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>1(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>附件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DBA2F39E-29AE-484C-AD07-E872AD86ACEA}" type="parTrans" cxnId="{71E4D1E8-D8BE-4EFF-A811-DAF26658E683}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8C9A8525-5D46-4868-963D-BFB6392C4102}" type="sibTrans" cxnId="{71E4D1E8-D8BE-4EFF-A811-DAF26658E683}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{17E34680-CF19-408E-B883-1896BEAF3CFB}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>一、打开附件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>3rd-party</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>子目录，内有预先下载好的两个安装包（扩展名为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>deb</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>），依次双击打开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>个安装包，点击安装并输入管理员密码（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{550F69F8-F5A0-4400-AF41-837E7044A100}" type="parTrans" cxnId="{13714342-E496-4A35-A950-3BCAFD797861}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BEBAB364-57D8-4390-9B90-2DB2CCFAF666}" type="sibTrans" cxnId="{13714342-E496-4A35-A950-3BCAFD797861}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E474A8AE-21EC-409C-A6C5-8D303F09C0CE}" type="pres">
+      <dgm:prSet presAssocID="{D481086A-7E11-48B1-97F6-91DF20685354}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax/>
+          <dgm:chPref/>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{40507CE7-2C85-409B-AECA-6AE28C40FD30}" type="pres">
+      <dgm:prSet presAssocID="{956E677F-E02C-4477-86FC-38880AC9AB0A}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0F402217-8249-401D-8A97-15183BFF59F1}" type="pres">
+      <dgm:prSet presAssocID="{956E677F-E02C-4477-86FC-38880AC9AB0A}" presName="ParentAccentShape" presStyleLbl="trBgShp" presStyleIdx="0" presStyleCnt="5" custLinFactNeighborX="-12429" custLinFactNeighborY="-1519"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5B673B24-2AC1-454B-B409-DA0014AE268F}" type="pres">
+      <dgm:prSet presAssocID="{956E677F-E02C-4477-86FC-38880AC9AB0A}" presName="ParentText" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="6" custLinFactNeighborX="-13610" custLinFactNeighborY="-13115">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:chPref val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{04D25BDC-62F1-4F74-8CF4-3429406C8649}" type="pres">
+      <dgm:prSet presAssocID="{956E677F-E02C-4477-86FC-38880AC9AB0A}" presName="ChildText" presStyleLbl="revTx" presStyleIdx="1" presStyleCnt="6" custScaleX="138777">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{01745E87-E979-492C-A105-896323CD58E2}" type="pres">
+      <dgm:prSet presAssocID="{956E677F-E02C-4477-86FC-38880AC9AB0A}" presName="ChildAccentShape" presStyleLbl="trBgShp" presStyleIdx="1" presStyleCnt="5" custScaleX="67612" custLinFactX="400000" custLinFactNeighborX="496967" custLinFactNeighborY="-606"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0F6AACEE-F69D-4041-8112-3098E1A95EAF}" type="pres">
+      <dgm:prSet presAssocID="{956E677F-E02C-4477-86FC-38880AC9AB0A}" presName="Image" presStyleLbl="alignImgPlace1" presStyleIdx="0" presStyleCnt="3" custLinFactNeighborX="-16110" custLinFactNeighborY="-885"/>
+      <dgm:spPr>
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{5604B895-16E1-4A11-8E5D-F5C2BC6D522E}" type="pres">
+      <dgm:prSet presAssocID="{8C9A8525-5D46-4868-963D-BFB6392C4102}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4419F798-D4AF-4BCF-BED8-24A65708BBA5}" type="pres">
+      <dgm:prSet presAssocID="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{72A9BCBF-C316-437F-BB4B-4D2078E4B25F}" type="pres">
+      <dgm:prSet presAssocID="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" presName="ParentAccentShape" presStyleLbl="trBgShp" presStyleIdx="2" presStyleCnt="5" custScaleX="107086" custScaleY="93402" custLinFactNeighborX="-12726" custLinFactNeighborY="703"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B9AA61BA-29EC-4D5C-873F-F4A528FD3E7F}" type="pres">
+      <dgm:prSet presAssocID="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" presName="ParentText" presStyleLbl="revTx" presStyleIdx="2" presStyleCnt="6" custLinFactNeighborX="-17013" custLinFactNeighborY="-13115">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:chPref val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{40B760E4-7F61-4FD4-B0E8-C1BAF0BC3F42}" type="pres">
+      <dgm:prSet presAssocID="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" presName="ChildText" presStyleLbl="revTx" presStyleIdx="3" presStyleCnt="6" custScaleX="138777">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8E236DEE-44A5-4A6D-8210-1F86FCE56B44}" type="pres">
+      <dgm:prSet presAssocID="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" presName="ChildAccentShape" presStyleLbl="trBgShp" presStyleIdx="3" presStyleCnt="5" custScaleX="53871" custLinFactX="557039" custLinFactNeighborX="600000" custLinFactNeighborY="-475"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{615CCFFC-BDBA-4F31-BC73-45BC704FC6CC}" type="pres">
+      <dgm:prSet presAssocID="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" presName="Image" presStyleLbl="alignImgPlace1" presStyleIdx="1" presStyleCnt="3" custScaleX="113786" custScaleY="108768" custLinFactNeighborX="-16280" custLinFactNeighborY="-5148"/>
+      <dgm:spPr>
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{832D6FDC-9A28-4C29-B23D-5C5BE76DA8B1}" type="pres">
+      <dgm:prSet presAssocID="{3C016666-D9F6-4C67-8D16-6A2879E0285E}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5EB79F0F-CE03-4CFD-82C5-2C94ACE68AF7}" type="pres">
+      <dgm:prSet presAssocID="{3661D9AC-371D-449A-91D5-E882211F7970}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E59C0CF0-8AF4-4102-AF0E-98D0D3F80874}" type="pres">
+      <dgm:prSet presAssocID="{3661D9AC-371D-449A-91D5-E882211F7970}" presName="ParentAccentShape" presStyleLbl="trBgShp" presStyleIdx="4" presStyleCnt="5" custLinFactNeighborX="-2702" custLinFactNeighborY="-4556"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E8778532-FF6E-4593-9588-9ACA82C35398}" type="pres">
+      <dgm:prSet presAssocID="{3661D9AC-371D-449A-91D5-E882211F7970}" presName="ParentText" presStyleLbl="revTx" presStyleIdx="4" presStyleCnt="6" custLinFactNeighborX="-2734" custLinFactNeighborY="-34120">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:chPref val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{306807D0-3D4C-46D5-9A90-DBE032FEB412}" type="pres">
+      <dgm:prSet presAssocID="{3661D9AC-371D-449A-91D5-E882211F7970}" presName="ChildText" presStyleLbl="revTx" presStyleIdx="5" presStyleCnt="6">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8683EE14-823D-4DB4-A34B-DA5D3AE4744B}" type="pres">
+      <dgm:prSet presAssocID="{3661D9AC-371D-449A-91D5-E882211F7970}" presName="ChildAccentShape" presStyleLbl="trBgShp" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2DC88F46-609A-4AA2-8FF5-8A9B2C85E489}" type="pres">
+      <dgm:prSet presAssocID="{3661D9AC-371D-449A-91D5-E882211F7970}" presName="Image" presStyleLbl="alignImgPlace1" presStyleIdx="2" presStyleCnt="3" custLinFactNeighborX="-6113" custLinFactNeighborY="-4500"/>
+      <dgm:spPr>
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </dgm:spPr>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{71E4D1E8-D8BE-4EFF-A811-DAF26658E683}" srcId="{D481086A-7E11-48B1-97F6-91DF20685354}" destId="{956E677F-E02C-4477-86FC-38880AC9AB0A}" srcOrd="0" destOrd="0" parTransId="{DBA2F39E-29AE-484C-AD07-E872AD86ACEA}" sibTransId="{8C9A8525-5D46-4868-963D-BFB6392C4102}"/>
+    <dgm:cxn modelId="{1395AA8B-7FC5-462D-BCD1-0B097663F415}" type="presOf" srcId="{17E34680-CF19-408E-B883-1896BEAF3CFB}" destId="{04D25BDC-62F1-4F74-8CF4-3429406C8649}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{13714342-E496-4A35-A950-3BCAFD797861}" srcId="{956E677F-E02C-4477-86FC-38880AC9AB0A}" destId="{17E34680-CF19-408E-B883-1896BEAF3CFB}" srcOrd="0" destOrd="0" parTransId="{550F69F8-F5A0-4400-AF41-837E7044A100}" sibTransId="{BEBAB364-57D8-4390-9B90-2DB2CCFAF666}"/>
+    <dgm:cxn modelId="{B4FA9C1E-3D39-4C01-BE96-F20C5F9EFE2A}" srcId="{D481086A-7E11-48B1-97F6-91DF20685354}" destId="{3661D9AC-371D-449A-91D5-E882211F7970}" srcOrd="2" destOrd="0" parTransId="{D14A1174-A157-424F-A114-E6AAF95A9ED2}" sibTransId="{18D79EBF-2B6F-4B4D-9713-14A2235F0FBF}"/>
+    <dgm:cxn modelId="{76CA15AF-E5EA-4C7C-A75D-31E079CE98CB}" type="presOf" srcId="{3661D9AC-371D-449A-91D5-E882211F7970}" destId="{E8778532-FF6E-4593-9588-9ACA82C35398}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{0A3FF5E5-6F99-4577-A206-30BAD99D8364}" type="presOf" srcId="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" destId="{B9AA61BA-29EC-4D5C-873F-F4A528FD3E7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{9B8D1206-B30B-4267-B859-022114AB4DE9}" srcId="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" destId="{391F6080-53ED-4E70-99A2-0E727CB658A1}" srcOrd="0" destOrd="0" parTransId="{4591BFC8-ADEB-458D-923C-1D7C6C3E2EDA}" sibTransId="{9424AC28-944A-4A3B-907B-36EBC74BB69E}"/>
+    <dgm:cxn modelId="{30E8D33A-202F-471E-83FD-96B2A37457A8}" type="presOf" srcId="{D481086A-7E11-48B1-97F6-91DF20685354}" destId="{E474A8AE-21EC-409C-A6C5-8D303F09C0CE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{BE99DC55-CE6F-4114-A2E3-7A4B22D874CF}" type="presOf" srcId="{391F6080-53ED-4E70-99A2-0E727CB658A1}" destId="{40B760E4-7F61-4FD4-B0E8-C1BAF0BC3F42}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{079C5D13-7046-4812-B562-FC896FB53199}" srcId="{D481086A-7E11-48B1-97F6-91DF20685354}" destId="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" srcOrd="1" destOrd="0" parTransId="{455CF7C6-ED0C-44C9-8BEC-1A43FCA86269}" sibTransId="{3C016666-D9F6-4C67-8D16-6A2879E0285E}"/>
+    <dgm:cxn modelId="{AFA9E72D-1FFC-48BD-9775-F9D247C43974}" type="presOf" srcId="{956E677F-E02C-4477-86FC-38880AC9AB0A}" destId="{5B673B24-2AC1-454B-B409-DA0014AE268F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{A6087927-D69A-411C-8063-0147CE2691F2}" type="presParOf" srcId="{E474A8AE-21EC-409C-A6C5-8D303F09C0CE}" destId="{40507CE7-2C85-409B-AECA-6AE28C40FD30}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{BBEE13D2-8FA2-4F05-8712-FC811344B8AF}" type="presParOf" srcId="{40507CE7-2C85-409B-AECA-6AE28C40FD30}" destId="{0F402217-8249-401D-8A97-15183BFF59F1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{381344FE-CF5D-4A8C-B91F-4E650258E3D8}" type="presParOf" srcId="{40507CE7-2C85-409B-AECA-6AE28C40FD30}" destId="{5B673B24-2AC1-454B-B409-DA0014AE268F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{5581AFEA-0130-484F-93A0-6F6A39BBAE4D}" type="presParOf" srcId="{40507CE7-2C85-409B-AECA-6AE28C40FD30}" destId="{04D25BDC-62F1-4F74-8CF4-3429406C8649}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{5793C65E-3F96-418F-91CD-B80840CAA482}" type="presParOf" srcId="{40507CE7-2C85-409B-AECA-6AE28C40FD30}" destId="{01745E87-E979-492C-A105-896323CD58E2}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{69CE9441-37F6-4A45-B201-D34E11A5B46B}" type="presParOf" srcId="{40507CE7-2C85-409B-AECA-6AE28C40FD30}" destId="{0F6AACEE-F69D-4041-8112-3098E1A95EAF}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{B848E97D-3FBE-4B70-A7B2-B19C94EF3911}" type="presParOf" srcId="{E474A8AE-21EC-409C-A6C5-8D303F09C0CE}" destId="{5604B895-16E1-4A11-8E5D-F5C2BC6D522E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{11726B2A-6D49-406E-A977-A61B0F084092}" type="presParOf" srcId="{E474A8AE-21EC-409C-A6C5-8D303F09C0CE}" destId="{4419F798-D4AF-4BCF-BED8-24A65708BBA5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{699E6B24-4B2B-42A0-AB43-B93A0ED34C69}" type="presParOf" srcId="{4419F798-D4AF-4BCF-BED8-24A65708BBA5}" destId="{72A9BCBF-C316-437F-BB4B-4D2078E4B25F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{CB52EEF8-6EB0-4A1A-9A73-5E516179D5BC}" type="presParOf" srcId="{4419F798-D4AF-4BCF-BED8-24A65708BBA5}" destId="{B9AA61BA-29EC-4D5C-873F-F4A528FD3E7F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{622DAE79-58B4-4EA7-A3D1-67282F863099}" type="presParOf" srcId="{4419F798-D4AF-4BCF-BED8-24A65708BBA5}" destId="{40B760E4-7F61-4FD4-B0E8-C1BAF0BC3F42}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{DFF812AE-8142-4ABE-AB7B-6F529B7CB896}" type="presParOf" srcId="{4419F798-D4AF-4BCF-BED8-24A65708BBA5}" destId="{8E236DEE-44A5-4A6D-8210-1F86FCE56B44}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{AF7FE276-5041-44FE-B0A7-BCD2F7806F25}" type="presParOf" srcId="{4419F798-D4AF-4BCF-BED8-24A65708BBA5}" destId="{615CCFFC-BDBA-4F31-BC73-45BC704FC6CC}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{23DD8161-15B0-4067-8EA3-7FA1E76A659D}" type="presParOf" srcId="{E474A8AE-21EC-409C-A6C5-8D303F09C0CE}" destId="{832D6FDC-9A28-4C29-B23D-5C5BE76DA8B1}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{CFD7328A-0547-4F59-BCFC-26106373DD33}" type="presParOf" srcId="{E474A8AE-21EC-409C-A6C5-8D303F09C0CE}" destId="{5EB79F0F-CE03-4CFD-82C5-2C94ACE68AF7}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{6F60751C-8A23-4C36-A052-68D13BB4D8FD}" type="presParOf" srcId="{5EB79F0F-CE03-4CFD-82C5-2C94ACE68AF7}" destId="{E59C0CF0-8AF4-4102-AF0E-98D0D3F80874}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{E4B340C4-0646-4D48-A1D0-ADD5A68A112C}" type="presParOf" srcId="{5EB79F0F-CE03-4CFD-82C5-2C94ACE68AF7}" destId="{E8778532-FF6E-4593-9588-9ACA82C35398}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{19AE11DD-1AD8-4BDC-84DE-E015B268D0CA}" type="presParOf" srcId="{5EB79F0F-CE03-4CFD-82C5-2C94ACE68AF7}" destId="{306807D0-3D4C-46D5-9A90-DBE032FEB412}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{A7FE1ACF-D89A-444E-BCEB-FEA2DE8CC71A}" type="presParOf" srcId="{5EB79F0F-CE03-4CFD-82C5-2C94ACE68AF7}" destId="{8683EE14-823D-4DB4-A34B-DA5D3AE4744B}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{88301F26-2FCD-4BCA-88CF-92A5F91C0C4D}" type="presParOf" srcId="{5EB79F0F-CE03-4CFD-82C5-2C94ACE68AF7}" destId="{2DC88F46-609A-4AA2-8FF5-8A9B2C85E489}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+  </dgm:cxnLst>
+  <dgm:bg>
+    <a:effectLst/>
+  </dgm:bg>
+  <dgm:whole>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </dgm:whole>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId6" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{8E236DEE-44A5-4A6D-8210-1F86FCE56B44}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10951288" y="5936777"/>
+          <a:ext cx="108986" cy="3744330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="50000"/>
+            <a:alpha val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{72A9BCBF-C316-437F-BB4B-4D2078E4B25F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="775625" y="6104410"/>
+          <a:ext cx="5634612" cy="3497279"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5450"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="50000"/>
+            <a:alpha val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{0F402217-8249-401D-8A97-15183BFF59F1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="803303" y="392795"/>
+          <a:ext cx="5261763" cy="3744330"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5450"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="50000"/>
+            <a:alpha val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{01745E87-E979-492C-A105-896323CD58E2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10923489" y="426981"/>
+          <a:ext cx="136785" cy="3744330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="50000"/>
+            <a:alpha val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E59C0CF0-8AF4-4102-AF0E-98D0D3F80874}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1340061" y="11133588"/>
+          <a:ext cx="5261763" cy="3744330"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5450"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="50000"/>
+            <a:alpha val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{0F6AACEE-F69D-4041-8112-3098E1A95EAF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="439899" y="0"/>
+          <a:ext cx="5059453" cy="3541809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{5B673B24-2AC1-454B-B409-DA0014AE268F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1002403" y="3485799"/>
+          <a:ext cx="4853743" cy="444455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="193040" tIns="72390" rIns="193040" bIns="72390" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="844550">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>1(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>附件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1002403" y="3485799"/>
+        <a:ext cx="4853743" cy="444455"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{04D25BDC-62F1-4F74-8CF4-3429406C8649}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6466848" y="449671"/>
+          <a:ext cx="3338448" cy="3744330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="844550">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200" baseline="0"/>
+            <a:t>一、打开附件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200" baseline="0"/>
+            <a:t>3rd-party</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200" baseline="0"/>
+            <a:t>子目录，内有预先下载好的两个安装包（扩展名为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200" baseline="0"/>
+            <a:t>deb</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200" baseline="0"/>
+            <a:t>），依次双击打开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200" baseline="0"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200" baseline="0"/>
+            <a:t>个安装包，点击安装并输入管理员密码（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1900" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6466848" y="449671"/>
+        <a:ext cx="3338448" cy="3744330"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{615CCFFC-BDBA-4F31-BC73-45BC704FC6CC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="256924" y="5168308"/>
+          <a:ext cx="5756949" cy="3852355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B9AA61BA-29EC-4D5C-873F-F4A528FD3E7F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1011605" y="8990690"/>
+          <a:ext cx="4853743" cy="444455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="193040" tIns="72390" rIns="193040" bIns="72390" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="844550">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>2(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>安装过程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1011605" y="8990690"/>
+        <a:ext cx="4853743" cy="444455"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{40B760E4-7F61-4FD4-B0E8-C1BAF0BC3F42}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6641222" y="5954562"/>
+          <a:ext cx="3338448" cy="3744330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="889000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0"/>
+            <a:t>依次双击每个安装包，点击左上方的“安装”按钮（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>），</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0"/>
+            <a:t>输入管理员密码（如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6641222" y="5954562"/>
+        <a:ext cx="3338448" cy="3744330"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2DC88F46-609A-4AA2-8FF5-8A9B2C85E489}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="970639" y="10696150"/>
+          <a:ext cx="5059453" cy="3541809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E8778532-FF6E-4593-9588-9ACA82C35398}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1555243" y="14246950"/>
+          <a:ext cx="4853743" cy="444455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="203200" tIns="76200" rIns="203200" bIns="76200" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="889000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
+            <a:t>图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
+            <a:t>3(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
+            <a:t>输入管理员密码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1555243" y="14246950"/>
+        <a:ext cx="4853743" cy="444455"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{306807D0-3D4C-46D5-9A90-DBE032FEB412}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6958209" y="11304180"/>
+          <a:ext cx="2405620" cy="3744330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="picture" pri="3000"/>
+    <dgm:cat type="pictureconvert" pri="3000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="10">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="40" srcId="0" destId="10" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="12" srcId="10" destId="11" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="10">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="40" srcId="0" destId="10" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="12" srcId="10" destId="11" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="10">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="40" srcId="0" destId="10" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="12" srcId="10" destId="11" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:chMax/>
+      <dgm:chPref/>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+    </dgm:varLst>
+    <dgm:alg type="snake">
+      <dgm:param type="grDir" val="tL"/>
+      <dgm:param type="flowDir" val="col"/>
+    </dgm:alg>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:constrLst>
+      <dgm:constr type="primFontSz" for="des" forName="ChildText" refType="primFontSz" refFor="des" refForName="ParentText" op="lte"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="sp" refType="h" refFor="ch" refForName="composite" op="equ" fact="0.1"/>
+      <dgm:constr type="h" for="ch" forName="sibTrans" refType="h" refFor="ch" refForName="composite" op="equ" fact="0.1"/>
+      <dgm:constr type="w" for="ch" forName="sibTrans" refType="h" refFor="ch" refForName="sibTrans" op="equ"/>
+    </dgm:constrLst>
+    <dgm:forEach name="nodesForEach" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite">
+          <dgm:param type="ar" val="2.0273"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:choose name="Name1">
+          <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+            <dgm:constrLst>
+              <dgm:constr type="l" for="ch" forName="ParentAccentShape" refType="w" fact="0.0238"/>
+              <dgm:constr type="t" for="ch" forName="ParentAccentShape" refType="h" fact="0.107"/>
+              <dgm:constr type="w" for="ch" forName="ParentAccentShape" refType="w" fact="0.619"/>
+              <dgm:constr type="h" for="ch" forName="ParentAccentShape" refType="h" fact="0.893"/>
+              <dgm:constr type="l" for="ch" forName="ParentText" refType="w" fact="0.048"/>
+              <dgm:constr type="t" for="ch" forName="ParentText" refType="h" fact="0.845"/>
+              <dgm:constr type="w" for="ch" forName="ParentText" refType="w" fact="0.571"/>
+              <dgm:constr type="h" for="ch" forName="ParentText" refType="h" fact="0.106"/>
+              <dgm:constr type="l" for="ch" forName="ChildText" refType="w" fact="0.668"/>
+              <dgm:constr type="t" for="ch" forName="ChildText" refType="h" fact="0.107"/>
+              <dgm:constr type="w" for="ch" forName="ChildText" refType="w" fact="0.283"/>
+              <dgm:constr type="h" for="ch" forName="ChildText" refType="h" fact="0.893"/>
+              <dgm:constr type="l" for="ch" forName="ChildAccentShape" refType="w" fact="0.9762"/>
+              <dgm:constr type="t" for="ch" forName="ChildAccentShape" refType="h" fact="0.107"/>
+              <dgm:constr type="w" for="ch" forName="ChildAccentShape" refType="w" fact="0.0238"/>
+              <dgm:constr type="h" for="ch" forName="ChildAccentShape" refType="h" fact="0.893"/>
+              <dgm:constr type="l" for="ch" forName="Image" refType="w" fact="0"/>
+              <dgm:constr type="t" for="ch" forName="Image" refType="h" fact="0"/>
+              <dgm:constr type="w" for="ch" forName="Image" refType="w" fact="0.5952"/>
+              <dgm:constr type="h" for="ch" forName="Image" refType="h" fact="0.8447"/>
+            </dgm:constrLst>
+          </dgm:if>
+          <dgm:else name="Name3">
+            <dgm:constrLst>
+              <dgm:constr type="l" for="ch" forName="ParentAccentShape" refType="w" fact="0.3572"/>
+              <dgm:constr type="t" for="ch" forName="ParentAccentShape" refType="h" fact="0.107"/>
+              <dgm:constr type="w" for="ch" forName="ParentAccentShape" refType="w" fact="0.619"/>
+              <dgm:constr type="h" for="ch" forName="ParentAccentShape" refType="h" fact="0.893"/>
+              <dgm:constr type="l" for="ch" forName="ParentText" refType="w" fact="0.381"/>
+              <dgm:constr type="t" for="ch" forName="ParentText" refType="h" fact="0.845"/>
+              <dgm:constr type="w" for="ch" forName="ParentText" refType="w" fact="0.571"/>
+              <dgm:constr type="h" for="ch" forName="ParentText" refType="h" fact="0.106"/>
+              <dgm:constr type="l" for="ch" forName="ChildText" refType="w" fact="0.049"/>
+              <dgm:constr type="t" for="ch" forName="ChildText" refType="h" fact="0.107"/>
+              <dgm:constr type="w" for="ch" forName="ChildText" refType="w" fact="0.283"/>
+              <dgm:constr type="h" for="ch" forName="ChildText" refType="h" fact="0.893"/>
+              <dgm:constr type="l" for="ch" forName="ChildAccentShape" refType="w" fact="0"/>
+              <dgm:constr type="t" for="ch" forName="ChildAccentShape" refType="h" fact="0.107"/>
+              <dgm:constr type="w" for="ch" forName="ChildAccentShape" refType="w" fact="0.0238"/>
+              <dgm:constr type="h" for="ch" forName="ChildAccentShape" refType="h" fact="0.893"/>
+              <dgm:constr type="l" for="ch" forName="Image" refType="w" fact="0.4048"/>
+              <dgm:constr type="t" for="ch" forName="Image" refType="h" fact="0"/>
+              <dgm:constr type="w" for="ch" forName="Image" refType="w" fact="0.5952"/>
+              <dgm:constr type="h" for="ch" forName="Image" refType="h" fact="0.8447"/>
+            </dgm:constrLst>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:layoutNode name="ParentAccentShape" styleLbl="trBgShp">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="frame" r:blip="" zOrderOff="-10">
+            <dgm:adjLst>
+              <dgm:adj idx="1" val="0.0545"/>
+            </dgm:adjLst>
+          </dgm:shape>
+          <dgm:presOf/>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="ParentText" styleLbl="revTx">
+          <dgm:varLst>
+            <dgm:chMax val="1"/>
+            <dgm:chPref val="1"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="parTxLTRAlign" val="l"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" zOrderOff="10">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.8"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.8"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="ChildText" styleLbl="revTx">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="parTxLTRAlign" val="l"/>
+            <dgm:param type="txAnchorVert" val="t"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" zOrderOff="10">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:choose name="Name4">
+            <dgm:if name="Name5" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+              <dgm:presOf axis="des" ptType="node"/>
+            </dgm:if>
+            <dgm:else name="Name6">
+              <dgm:presOf/>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:constrLst>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="ChildAccentShape" styleLbl="trBgShp">
+          <dgm:alg type="sp"/>
+          <dgm:choose name="Name7">
+            <dgm:if name="Name8" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" zOrderOff="-10">
+                <dgm:adjLst/>
+              </dgm:shape>
+            </dgm:if>
+            <dgm:else name="Name9">
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                <dgm:adjLst/>
+              </dgm:shape>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:presOf/>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="Image" styleLbl="alignImgPlace1">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" blipPhldr="1">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="sibTransForEach" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="sibTrans">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>12277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>141516</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="231321" y="18055348"/>
+          <a:ext cx="8014607" cy="5259132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>145792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -92,8 +3682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="190500"/>
-          <a:ext cx="3905250" cy="2543175"/>
+          <a:off x="8785744" y="16066149"/>
+          <a:ext cx="6938866" cy="20741174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -128,61 +3718,133 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
             <a:t>编译说明</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1. Ubuntu</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>系统安装依赖的头文件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>sudo apt-get -y</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> install liburcu-dev make gcc cpp clang</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>一、准备工作</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>如图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>所示在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Ubuntu 18.04</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>系统安装中依赖的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>deb</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>包。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0"/>
+            <a:t>二、打开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" baseline="0"/>
+            <a:t>Qt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0"/>
+            <a:t>工程</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
             <a:t>使用</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
             <a:t>QtCreator</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
             <a:t>打开顶层工程文件</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
             <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -194,7 +3856,7 @@
             <a:t>选择</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -206,7 +3868,7 @@
             <a:t>X86_64</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -218,7 +3880,7 @@
             <a:t>位</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -230,44 +3892,172 @@
             <a:t>编译器套件</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
             <a:t>点击右下角</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
             <a:t>configure </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>按钮完成配置；</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>3. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>进入调试模式，运行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>按钮完成配置，如左图所示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0"/>
+            <a:t>三、进入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" baseline="0"/>
+            <a:t>Debug</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0"/>
+            <a:t>调试模式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>运行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
             <a:t>test/demo2/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>目录下的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>目录下的主程序</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
             <a:t>demo2_main.c</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -279,6 +4069,188 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>80123</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图示 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId2" r:lo="rId3" r:qs="rId4" r:cs="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>105457</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>125821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="双击安装Ubuntu deb软件包" title="图1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19441207" y="4576788"/>
+          <a:ext cx="8776606" cy="6217033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>117021</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>170089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="117021" y="23519946"/>
+          <a:ext cx="8292193" cy="5109482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>115660</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>32871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="115660" y="28745090"/>
+          <a:ext cx="8266340" cy="7197031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>43630</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>98405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="68035" y="36371893"/>
+          <a:ext cx="10180952" cy="7419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -571,14 +4543,2796 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/顶层工程编译运行步骤.xlsx
+++ b/顶层工程编译运行步骤.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -973,7 +973,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>）；</a:t>
+            <a:t>）。这里一共要输入四次；</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
         </a:p>
@@ -1022,7 +1022,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-            <a:t>)</a:t>
+            <a:t>))</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
         </a:p>
@@ -1067,7 +1067,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t>附件</a:t>
+            <a:t>打开附件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>3rd-party</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>子目录</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
@@ -1108,7 +1116,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-            <a:t>一、打开附件</a:t>
+            <a:t>一、需要安装的软件包：打开附件</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
@@ -1116,7 +1124,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-            <a:t>子目录，内有预先下载好的两个安装包（扩展名为</a:t>
+            <a:t>子目录，内有预先下载好的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>个安装包（扩展名均为</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
@@ -1124,39 +1140,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-            <a:t>），依次双击打开</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-            <a:t>个安装包，点击安装并输入管理员密码（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>如图</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1</a:t>
+            <a:t>），依次双击打开每一个安装包，点击</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
@@ -1168,7 +1152,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>、图</a:t>
+            <a:t>图</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
@@ -1192,7 +1176,23 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>）；</a:t>
+            <a:t>所示“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>安装”按钮并输入管理员密码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>；</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
@@ -1210,6 +1210,51 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{BEBAB364-57D8-4390-9B90-2DB2CCFAF666}" type="sibTrans" cxnId="{13714342-E496-4A35-A950-3BCAFD797861}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B7AA3381-92D0-4AA4-BFC4-C9F6828C8E33}">
+      <dgm:prSet phldrT="[文本]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>管理员密码一共要输入四次；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{68EA3741-5E40-48F9-9DF4-8C5E297E9215}" type="parTrans" cxnId="{1FEFA126-1264-4BCB-84C7-D25D7C6F41F7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{215895E0-9EF1-4A01-BB28-39FCD9B309BF}" type="sibTrans" cxnId="{1FEFA126-1264-4BCB-84C7-D25D7C6F41F7}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1243,7 +1288,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0F402217-8249-401D-8A97-15183BFF59F1}" type="pres">
-      <dgm:prSet presAssocID="{956E677F-E02C-4477-86FC-38880AC9AB0A}" presName="ParentAccentShape" presStyleLbl="trBgShp" presStyleIdx="0" presStyleCnt="5" custLinFactNeighborX="-12429" custLinFactNeighborY="-1519"/>
+      <dgm:prSet presAssocID="{956E677F-E02C-4477-86FC-38880AC9AB0A}" presName="ParentAccentShape" presStyleLbl="trBgShp" presStyleIdx="0" presStyleCnt="6" custLinFactNeighborX="-12429" custLinFactNeighborY="-1519"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5B673B24-2AC1-454B-B409-DA0014AE268F}" type="pres">
@@ -1280,11 +1325,11 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{01745E87-E979-492C-A105-896323CD58E2}" type="pres">
-      <dgm:prSet presAssocID="{956E677F-E02C-4477-86FC-38880AC9AB0A}" presName="ChildAccentShape" presStyleLbl="trBgShp" presStyleIdx="1" presStyleCnt="5" custScaleX="67612" custLinFactX="400000" custLinFactNeighborX="496967" custLinFactNeighborY="-606"/>
+      <dgm:prSet presAssocID="{956E677F-E02C-4477-86FC-38880AC9AB0A}" presName="ChildAccentShape" presStyleLbl="trBgShp" presStyleIdx="1" presStyleCnt="6" custScaleX="67612" custLinFactX="400000" custLinFactNeighborX="496967" custLinFactNeighborY="-606"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0F6AACEE-F69D-4041-8112-3098E1A95EAF}" type="pres">
-      <dgm:prSet presAssocID="{956E677F-E02C-4477-86FC-38880AC9AB0A}" presName="Image" presStyleLbl="alignImgPlace1" presStyleIdx="0" presStyleCnt="3" custLinFactNeighborX="-16110" custLinFactNeighborY="-885"/>
+      <dgm:prSet presAssocID="{956E677F-E02C-4477-86FC-38880AC9AB0A}" presName="Image" presStyleLbl="alignImgPlace1" presStyleIdx="0" presStyleCnt="3" custScaleX="99438" custScaleY="86916" custLinFactNeighborX="-16110" custLinFactNeighborY="-885"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
@@ -1293,6 +1338,13 @@
           </a:stretch>
         </a:blipFill>
       </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5604B895-16E1-4A11-8E5D-F5C2BC6D522E}" type="pres">
       <dgm:prSet presAssocID="{8C9A8525-5D46-4868-963D-BFB6392C4102}" presName="sibTrans" presStyleCnt="0"/>
@@ -1303,7 +1355,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{72A9BCBF-C316-437F-BB4B-4D2078E4B25F}" type="pres">
-      <dgm:prSet presAssocID="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" presName="ParentAccentShape" presStyleLbl="trBgShp" presStyleIdx="2" presStyleCnt="5" custScaleX="107086" custScaleY="93402" custLinFactNeighborX="-12726" custLinFactNeighborY="703"/>
+      <dgm:prSet presAssocID="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" presName="ParentAccentShape" presStyleLbl="trBgShp" presStyleIdx="2" presStyleCnt="6" custScaleX="107086" custScaleY="93402" custLinFactNeighborX="-12726" custLinFactNeighborY="703"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B9AA61BA-29EC-4D5C-873F-F4A528FD3E7F}" type="pres">
@@ -1324,7 +1376,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{40B760E4-7F61-4FD4-B0E8-C1BAF0BC3F42}" type="pres">
-      <dgm:prSet presAssocID="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" presName="ChildText" presStyleLbl="revTx" presStyleIdx="3" presStyleCnt="6" custScaleX="138777">
+      <dgm:prSet presAssocID="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" presName="ChildText" presStyleLbl="revTx" presStyleIdx="3" presStyleCnt="6" custScaleX="164145" custLinFactNeighborX="12735">
         <dgm:presLayoutVars>
           <dgm:chMax val="0"/>
           <dgm:chPref val="0"/>
@@ -1340,7 +1392,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8E236DEE-44A5-4A6D-8210-1F86FCE56B44}" type="pres">
-      <dgm:prSet presAssocID="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" presName="ChildAccentShape" presStyleLbl="trBgShp" presStyleIdx="3" presStyleCnt="5" custScaleX="53871" custLinFactX="557039" custLinFactNeighborX="600000" custLinFactNeighborY="-475"/>
+      <dgm:prSet presAssocID="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" presName="ChildAccentShape" presStyleLbl="trBgShp" presStyleIdx="3" presStyleCnt="6" custScaleX="53871" custLinFactX="557039" custLinFactNeighborX="600000" custLinFactNeighborY="-475"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{615CCFFC-BDBA-4F31-BC73-45BC704FC6CC}" type="pres">
@@ -1353,6 +1405,13 @@
           </a:stretch>
         </a:blipFill>
       </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{832D6FDC-9A28-4C29-B23D-5C5BE76DA8B1}" type="pres">
       <dgm:prSet presAssocID="{3C016666-D9F6-4C67-8D16-6A2879E0285E}" presName="sibTrans" presStyleCnt="0"/>
@@ -1363,7 +1422,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E59C0CF0-8AF4-4102-AF0E-98D0D3F80874}" type="pres">
-      <dgm:prSet presAssocID="{3661D9AC-371D-449A-91D5-E882211F7970}" presName="ParentAccentShape" presStyleLbl="trBgShp" presStyleIdx="4" presStyleCnt="5" custLinFactNeighborX="-2702" custLinFactNeighborY="-4556"/>
+      <dgm:prSet presAssocID="{3661D9AC-371D-449A-91D5-E882211F7970}" presName="ParentAccentShape" presStyleLbl="trBgShp" presStyleIdx="4" presStyleCnt="6" custLinFactNeighborX="-2702" custLinFactNeighborY="-4556"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E8778532-FF6E-4593-9588-9ACA82C35398}" type="pres">
@@ -1384,16 +1443,23 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{306807D0-3D4C-46D5-9A90-DBE032FEB412}" type="pres">
-      <dgm:prSet presAssocID="{3661D9AC-371D-449A-91D5-E882211F7970}" presName="ChildText" presStyleLbl="revTx" presStyleIdx="5" presStyleCnt="6">
+      <dgm:prSet presAssocID="{3661D9AC-371D-449A-91D5-E882211F7970}" presName="ChildText" presStyleLbl="revTx" presStyleIdx="5" presStyleCnt="6" custScaleX="164145" custLinFactNeighborX="24674" custLinFactNeighborY="-2301">
         <dgm:presLayoutVars>
           <dgm:chMax val="0"/>
           <dgm:chPref val="0"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8683EE14-823D-4DB4-A34B-DA5D3AE4744B}" type="pres">
-      <dgm:prSet presAssocID="{3661D9AC-371D-449A-91D5-E882211F7970}" presName="ChildAccentShape" presStyleLbl="trBgShp" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{3661D9AC-371D-449A-91D5-E882211F7970}" presName="ChildAccentShape" presStyleLbl="trBgShp" presStyleIdx="5" presStyleCnt="6" custLinFactX="300000" custLinFactNeighborX="381415" custLinFactNeighborY="-1023"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2DC88F46-609A-4AA2-8FF5-8A9B2C85E489}" type="pres">
@@ -1406,15 +1472,24 @@
           </a:stretch>
         </a:blipFill>
       </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
     <dgm:cxn modelId="{71E4D1E8-D8BE-4EFF-A811-DAF26658E683}" srcId="{D481086A-7E11-48B1-97F6-91DF20685354}" destId="{956E677F-E02C-4477-86FC-38880AC9AB0A}" srcOrd="0" destOrd="0" parTransId="{DBA2F39E-29AE-484C-AD07-E872AD86ACEA}" sibTransId="{8C9A8525-5D46-4868-963D-BFB6392C4102}"/>
     <dgm:cxn modelId="{1395AA8B-7FC5-462D-BCD1-0B097663F415}" type="presOf" srcId="{17E34680-CF19-408E-B883-1896BEAF3CFB}" destId="{04D25BDC-62F1-4F74-8CF4-3429406C8649}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
     <dgm:cxn modelId="{13714342-E496-4A35-A950-3BCAFD797861}" srcId="{956E677F-E02C-4477-86FC-38880AC9AB0A}" destId="{17E34680-CF19-408E-B883-1896BEAF3CFB}" srcOrd="0" destOrd="0" parTransId="{550F69F8-F5A0-4400-AF41-837E7044A100}" sibTransId="{BEBAB364-57D8-4390-9B90-2DB2CCFAF666}"/>
+    <dgm:cxn modelId="{1FEFA126-1264-4BCB-84C7-D25D7C6F41F7}" srcId="{3661D9AC-371D-449A-91D5-E882211F7970}" destId="{B7AA3381-92D0-4AA4-BFC4-C9F6828C8E33}" srcOrd="0" destOrd="0" parTransId="{68EA3741-5E40-48F9-9DF4-8C5E297E9215}" sibTransId="{215895E0-9EF1-4A01-BB28-39FCD9B309BF}"/>
     <dgm:cxn modelId="{B4FA9C1E-3D39-4C01-BE96-F20C5F9EFE2A}" srcId="{D481086A-7E11-48B1-97F6-91DF20685354}" destId="{3661D9AC-371D-449A-91D5-E882211F7970}" srcOrd="2" destOrd="0" parTransId="{D14A1174-A157-424F-A114-E6AAF95A9ED2}" sibTransId="{18D79EBF-2B6F-4B4D-9713-14A2235F0FBF}"/>
     <dgm:cxn modelId="{76CA15AF-E5EA-4C7C-A75D-31E079CE98CB}" type="presOf" srcId="{3661D9AC-371D-449A-91D5-E882211F7970}" destId="{E8778532-FF6E-4593-9588-9ACA82C35398}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
     <dgm:cxn modelId="{0A3FF5E5-6F99-4577-A206-30BAD99D8364}" type="presOf" srcId="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" destId="{B9AA61BA-29EC-4D5C-873F-F4A528FD3E7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
+    <dgm:cxn modelId="{36B5991F-8734-4637-A8D7-15FE5F472AF2}" type="presOf" srcId="{B7AA3381-92D0-4AA4-BFC4-C9F6828C8E33}" destId="{306807D0-3D4C-46D5-9A90-DBE032FEB412}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
     <dgm:cxn modelId="{9B8D1206-B30B-4267-B859-022114AB4DE9}" srcId="{435A7B1C-87A2-4574-B8A4-23946BF753DA}" destId="{391F6080-53ED-4E70-99A2-0E727CB658A1}" srcOrd="0" destOrd="0" parTransId="{4591BFC8-ADEB-458D-923C-1D7C6C3E2EDA}" sibTransId="{9424AC28-944A-4A3B-907B-36EBC74BB69E}"/>
     <dgm:cxn modelId="{30E8D33A-202F-471E-83FD-96B2A37457A8}" type="presOf" srcId="{D481086A-7E11-48B1-97F6-91DF20685354}" destId="{E474A8AE-21EC-409C-A6C5-8D303F09C0CE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
     <dgm:cxn modelId="{BE99DC55-CE6F-4114-A2E3-7A4B22D874CF}" type="presOf" srcId="{391F6080-53ED-4E70-99A2-0E727CB658A1}" destId="{40B760E4-7F61-4FD4-B0E8-C1BAF0BC3F42}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/SnapshotPictureList"/>
@@ -1473,8 +1548,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10951288" y="5936777"/>
-          <a:ext cx="108986" cy="3744330"/>
+          <a:off x="10949626" y="5794944"/>
+          <a:ext cx="110648" cy="3801422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1514,8 +1589,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="775625" y="6104410"/>
-          <a:ext cx="5634612" cy="3497279"/>
+          <a:off x="548239" y="5965134"/>
+          <a:ext cx="5720527" cy="3550605"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
@@ -1557,8 +1632,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="803303" y="392795"/>
-          <a:ext cx="5261763" cy="3744330"/>
+          <a:off x="724012" y="166429"/>
+          <a:ext cx="5341994" cy="3801422"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
@@ -1600,8 +1675,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10923489" y="426981"/>
-          <a:ext cx="136785" cy="3744330"/>
+          <a:off x="10921403" y="201136"/>
+          <a:ext cx="138871" cy="3801422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1641,13 +1716,54 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1340061" y="11133588"/>
-          <a:ext cx="5261763" cy="3744330"/>
+          <a:off x="1095954" y="11070996"/>
+          <a:ext cx="5341994" cy="3801422"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
             <a:gd name="adj1" fmla="val 5450"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="50000"/>
+            <a:alpha val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{8683EE14-823D-4DB4-A34B-DA5D3AE4744B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10854880" y="11205300"/>
+          <a:ext cx="205394" cy="3801422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent1">
@@ -1684,8 +1800,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="439899" y="0"/>
-          <a:ext cx="5059453" cy="3541809"/>
+          <a:off x="369502" y="0"/>
+          <a:ext cx="5107731" cy="3125337"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1729,8 +1845,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1002403" y="3485799"/>
-          <a:ext cx="4853743" cy="444455"/>
+          <a:off x="926149" y="3306595"/>
+          <a:ext cx="4927752" cy="451232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1754,12 +1870,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="193040" tIns="72390" rIns="193040" bIns="72390" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="203200" tIns="76200" rIns="203200" bIns="76200" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="l" defTabSz="844550">
+          <a:pPr lvl="0" algn="l" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1771,27 +1887,35 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>图</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
             <a:t>1(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
-            <a:t>附件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
+            <a:t>打开附件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
+            <a:t>3rd-party</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
+            <a:t>子目录</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1002403" y="3485799"/>
-        <a:ext cx="4853743" cy="444455"/>
+        <a:off x="926149" y="3306595"/>
+        <a:ext cx="4927752" cy="451232"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{04D25BDC-62F1-4F74-8CF4-3429406C8649}">
@@ -1801,8 +1925,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6466848" y="449671"/>
-          <a:ext cx="3338448" cy="3744330"/>
+          <a:off x="6473914" y="224173"/>
+          <a:ext cx="3389352" cy="3801422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1831,7 +1955,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="l" defTabSz="844550">
+          <a:pPr lvl="0" algn="l" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1843,35 +1967,35 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200" baseline="0"/>
-            <a:t>一、打开附件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200" baseline="0"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0"/>
+            <a:t>一、需要安装的软件包：打开附件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200" baseline="0"/>
             <a:t>3rd-party</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200" baseline="0"/>
-            <a:t>子目录，内有预先下载好的两个安装包（扩展名为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200" baseline="0"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0"/>
+            <a:t>子目录，内有预先下载好的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200" baseline="0"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0"/>
+            <a:t>个安装包（扩展名均为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200" baseline="0"/>
             <a:t>deb</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200" baseline="0"/>
-            <a:t>），依次双击打开</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200" baseline="0"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200" baseline="0"/>
-            <a:t>个安装包，点击安装并输入管理员密码（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1900" kern="1200" baseline="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0"/>
+            <a:t>），依次双击打开每一个安装包，点击</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1880,34 +2004,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>如图</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>、图</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200" baseline="0">
+            <a:t>图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1919,7 +2019,7 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200" baseline="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1928,14 +2028,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>）；</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:t>所示“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0"/>
+            <a:t>安装”按钮并输入管理员密码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6466848" y="449671"/>
-        <a:ext cx="3338448" cy="3744330"/>
+        <a:off x="6473914" y="224173"/>
+        <a:ext cx="3389352" cy="3801422"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{615CCFFC-BDBA-4F31-BC73-45BC704FC6CC}">
@@ -1945,8 +2061,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="256924" y="5168308"/>
-          <a:ext cx="5756949" cy="3852355"/>
+          <a:off x="21629" y="5014758"/>
+          <a:ext cx="5844730" cy="3911094"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1990,8 +2106,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1011605" y="8990690"/>
-          <a:ext cx="4853743" cy="444455"/>
+          <a:off x="787816" y="8895423"/>
+          <a:ext cx="4927752" cy="451232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2015,12 +2131,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="193040" tIns="72390" rIns="193040" bIns="72390" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="203200" tIns="76200" rIns="203200" bIns="76200" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="l" defTabSz="844550">
+          <a:pPr lvl="0" algn="l" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2032,27 +2148,27 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>图</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
             <a:t>2(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
             <a:t>安装过程</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1900" kern="1200"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1900" kern="1200"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1011605" y="8990690"/>
-        <a:ext cx="4853743" cy="444455"/>
+        <a:off x="787816" y="8895423"/>
+        <a:ext cx="4927752" cy="451232"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{40B760E4-7F61-4FD4-B0E8-C1BAF0BC3F42}">
@@ -2062,8 +2178,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6641222" y="5954562"/>
-          <a:ext cx="3338448" cy="3744330"/>
+          <a:off x="6504519" y="5813001"/>
+          <a:ext cx="4008914" cy="3801422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2181,14 +2297,14 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>）；</a:t>
+            <a:t>）。这里一共要输入四次；</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6641222" y="5954562"/>
-        <a:ext cx="3338448" cy="3744330"/>
+        <a:off x="6504519" y="5813001"/>
+        <a:ext cx="4008914" cy="3801422"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2DC88F46-609A-4AA2-8FF5-8A9B2C85E489}">
@@ -2198,8 +2314,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="970639" y="10696150"/>
-          <a:ext cx="5059453" cy="3541809"/>
+          <a:off x="720900" y="10626887"/>
+          <a:ext cx="5136599" cy="3595814"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2243,8 +2359,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1555243" y="14246950"/>
-          <a:ext cx="4853743" cy="444455"/>
+          <a:off x="1314417" y="14231830"/>
+          <a:ext cx="4927752" cy="451232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2298,14 +2414,14 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="2000" kern="1200"/>
-            <a:t>)</a:t>
+            <a:t>))</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1555243" y="14246950"/>
-        <a:ext cx="4853743" cy="444455"/>
+        <a:off x="1314417" y="14231830"/>
+        <a:ext cx="4927752" cy="451232"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{306807D0-3D4C-46D5-9A90-DBE032FEB412}">
@@ -2315,8 +2431,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6958209" y="11304180"/>
-          <a:ext cx="2405620" cy="3744330"/>
+          <a:off x="6619072" y="11156718"/>
+          <a:ext cx="4008914" cy="3801422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2339,6 +2455,42 @@
         </a:effectRef>
         <a:fontRef idx="minor"/>
       </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="889000">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>管理员密码一共要输入四次；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6619072" y="11156718"/>
+        <a:ext cx="4008914" cy="3801422"/>
+      </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
@@ -3666,12 +3818,12 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>145792</xdr:rowOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>126352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19439</xdr:colOff>
       <xdr:row>210</xdr:row>
       <xdr:rowOff>68037</xdr:rowOff>
     </xdr:to>
@@ -3682,8 +3834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8785744" y="16066149"/>
-          <a:ext cx="6938866" cy="20741174"/>
+          <a:off x="8785744" y="17796199"/>
+          <a:ext cx="4345149" cy="19011124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3722,7 +3874,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>编译说明</a:t>
+            <a:t>二、编译说明</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
@@ -3730,64 +3882,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-            <a:t>一、准备工作</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>如图</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-            <a:t>1-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>图</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>所示在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-            <a:t>Ubuntu 18.04</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>系统安装中依赖的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-            <a:t>deb</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t>包。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
         </a:p>
         <a:p>
@@ -3806,15 +3900,9 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0"/>
-            <a:t>二、打开</a:t>
+            <a:t>打开</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="2000" baseline="0"/>
@@ -4028,7 +4116,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0"/>
-            <a:t>三、进入</a:t>
+            <a:t>进入</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="2000" baseline="0"/>
@@ -4073,15 +4161,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>277197</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>296248</xdr:colOff>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>80123</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4099,44 +4187,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>105457</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>125821</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="双击安装Ubuntu deb软件包" title="图1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19441207" y="4576788"/>
-          <a:ext cx="8776606" cy="6217033"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4160,7 +4210,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4198,7 +4248,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4236,7 +4286,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4251,6 +4301,81 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>602602</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2672832" y="87474"/>
+          <a:ext cx="3741964" cy="437373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Ubuntu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>编译环境配置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4546,7 +4671,7 @@
   <dimension ref="A1:Y103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/顶层工程编译运行步骤.xlsx
+++ b/顶层工程编译运行步骤.xlsx
@@ -3817,13 +3817,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
+      <xdr:colOff>504827</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>126352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19439</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>641481</xdr:colOff>
       <xdr:row>210</xdr:row>
       <xdr:rowOff>68037</xdr:rowOff>
     </xdr:to>
@@ -3834,8 +3834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8785744" y="17796199"/>
-          <a:ext cx="4345149" cy="19011124"/>
+          <a:off x="8785745" y="17796199"/>
+          <a:ext cx="2896960" cy="19011124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4668,15 +4668,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y103"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4694,16 +4697,8 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4721,16 +4716,8 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4748,16 +4735,8 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4775,16 +4754,8 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4802,16 +4773,8 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4829,16 +4792,8 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4856,16 +4811,8 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4883,16 +4830,8 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4910,16 +4849,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4937,16 +4868,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4964,16 +4887,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4991,16 +4906,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5018,16 +4925,8 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5045,16 +4944,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5072,16 +4963,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5099,16 +4982,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5126,16 +5001,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5153,16 +5020,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5180,16 +5039,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5207,16 +5058,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5234,16 +5077,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5261,16 +5096,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5288,16 +5115,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5315,16 +5134,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5342,16 +5153,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5369,16 +5172,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5396,16 +5191,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5423,16 +5210,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5450,16 +5229,8 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5477,16 +5248,8 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5504,16 +5267,8 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5531,16 +5286,8 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5558,16 +5305,8 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5585,16 +5324,8 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5612,16 +5343,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5639,16 +5362,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5666,16 +5381,8 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5693,16 +5400,8 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5720,16 +5419,8 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5747,16 +5438,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5774,16 +5457,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5801,16 +5476,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5828,16 +5495,8 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5855,16 +5514,8 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5882,16 +5533,8 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5909,16 +5552,8 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5936,16 +5571,8 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5963,16 +5590,8 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5990,16 +5609,8 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -6017,16 +5628,8 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -6044,16 +5647,8 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -6071,16 +5666,8 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -6098,16 +5685,8 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -6125,16 +5704,8 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -6152,16 +5723,8 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -6179,16 +5742,8 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -6206,16 +5761,8 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6233,16 +5780,8 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -6260,16 +5799,8 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -6287,16 +5818,8 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -6314,16 +5837,8 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -6341,16 +5856,8 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -6368,16 +5875,8 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -6395,16 +5894,8 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -6422,16 +5913,8 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -6449,16 +5932,8 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -6476,16 +5951,8 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6503,16 +5970,8 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -6530,16 +5989,8 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -6557,16 +6008,8 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6584,16 +6027,8 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6611,16 +6046,8 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6638,16 +6065,8 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6665,16 +6084,8 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6692,16 +6103,8 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6719,16 +6122,8 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6746,16 +6141,8 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6773,16 +6160,8 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6800,16 +6179,8 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6827,16 +6198,8 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6854,16 +6217,8 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6881,16 +6236,8 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6908,16 +6255,8 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6935,16 +6274,8 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6962,16 +6293,8 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6989,16 +6312,8 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7016,16 +6331,8 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7043,16 +6350,8 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7070,16 +6369,8 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7097,16 +6388,8 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7124,16 +6407,8 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7151,16 +6426,8 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7178,16 +6445,8 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
-      <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
-      <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7205,16 +6464,8 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7232,16 +6483,8 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
-      <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7259,16 +6502,8 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7286,16 +6521,8 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7313,16 +6540,8 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7340,16 +6559,8 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7367,16 +6578,8 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7394,16 +6597,8 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
-      <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7421,16 +6616,8 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7448,19 +6635,11 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="2"/>
-      <c r="V103" s="2"/>
-      <c r="W103" s="2"/>
-      <c r="X103" s="2"/>
-      <c r="Y103" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/顶层工程编译运行步骤.xlsx
+++ b/顶层工程编译运行步骤.xlsx
@@ -3817,15 +3817,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>504827</xdr:colOff>
+      <xdr:colOff>242985</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>126352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>641481</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>77755</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3834,8 +3834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8785745" y="17796199"/>
-          <a:ext cx="2896960" cy="19011124"/>
+          <a:off x="8523903" y="17796199"/>
+          <a:ext cx="3158802" cy="15346913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4126,34 +4126,59 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0"/>
             <a:t>调试模式</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>如左图所示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>选择要测试的子工程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>TestMPMC</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
-            <a:t>运行</a:t>
+            <a:t>对应多生产者多消费者模式</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
-            <a:t>test/demo2/</a:t>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>TestSPSC</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
-            <a:t>目录下的主程序</a:t>
+            <a:t>对应单生产者单消费者模式</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
-            <a:t>demo2_main.c</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t>.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4227,82 +4252,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>115660</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>32871</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="115660" y="28745090"/>
-          <a:ext cx="8266340" cy="7197031"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>43630</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>98405</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="68035" y="36371893"/>
-          <a:ext cx="10180952" cy="7419048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -4376,6 +4325,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>583163</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>29157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>595085</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>151487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2653393" y="28545841"/>
+          <a:ext cx="4152381" cy="7295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4673,8 +4660,8 @@
   </sheetPr>
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
